--- a/public/excel/Record.xlsx
+++ b/public/excel/Record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="339">
   <si>
     <t>Name</t>
   </si>
@@ -1009,7 +1009,7 @@
     <t>Gamil, Mon Albert L.</t>
   </si>
   <si>
-    <t>Punzalan , Jennina Aura S.A.</t>
+    <t>Punzalan, Jennina Aura S.A.</t>
   </si>
   <si>
     <t>2019 - 2020</t>
@@ -1031,9 +1031,6 @@
   </si>
   <si>
     <t>2022 - 2023</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -1122,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1155,12 +1152,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
@@ -1480,17 +1471,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="34.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1524,7 +1515,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1533,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1578,7 +1569,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1596,7 +1587,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1614,7 +1605,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1632,7 +1623,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1650,7 +1641,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1668,7 +1659,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1686,7 +1677,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1704,7 +1695,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1713,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1740,7 +1731,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1758,7 +1749,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1776,7 +1767,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1794,7 +1785,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1812,7 +1803,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1830,7 +1821,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1848,7 +1839,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -1866,7 +1857,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
@@ -1884,7 +1875,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -1902,7 +1893,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -1920,7 +1911,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
@@ -1938,7 +1929,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -1956,7 +1947,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -1974,7 +1965,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -1992,7 +1983,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
@@ -2010,7 +2001,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -2028,7 +2019,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -2046,7 +2037,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2064,7 +2055,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -2082,7 +2073,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -2100,7 +2091,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
@@ -4478,22 +4469,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
       <c r="A167" s="11"/>
-      <c r="B167" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>339</v>
-      </c>
+      <c r="B167" s="6"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
-      <c r="A168" s="14"/>
+      <c r="A168" s="12"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -4503,7 +4488,7 @@
       <c r="H168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
-      <c r="A169" s="14"/>
+      <c r="A169" s="12"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -4513,7 +4498,7 @@
       <c r="H169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
-      <c r="A170" s="14"/>
+      <c r="A170" s="12"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
